--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -666,7 +666,7 @@
         <v>130.67</v>
       </c>
       <c r="H2">
-        <v>264.6669999999999</v>
+        <v>264.67</v>
       </c>
       <c r="I2">
         <v>149.54</v>
@@ -705,7 +705,7 @@
         <v>18.85</v>
       </c>
       <c r="U2">
-        <v>145.0764285714286</v>
+        <v>145.08</v>
       </c>
       <c r="V2">
         <v>0.9</v>
@@ -770,7 +770,7 @@
         <v>294.74</v>
       </c>
       <c r="H3">
-        <v>264.6669999999999</v>
+        <v>264.67</v>
       </c>
       <c r="I3">
         <v>317.31</v>
@@ -809,7 +809,7 @@
         <v>21.72</v>
       </c>
       <c r="U3">
-        <v>145.0764285714286</v>
+        <v>145.08</v>
       </c>
       <c r="V3">
         <v>69.58</v>
@@ -827,7 +827,7 @@
         <v>111.43</v>
       </c>
       <c r="AA3">
-        <v>65.4135294117647</v>
+        <v>65.41</v>
       </c>
       <c r="AB3">
         <v>469.27</v>
@@ -874,7 +874,7 @@
         <v>533.4299999999999</v>
       </c>
       <c r="H4">
-        <v>264.6669999999999</v>
+        <v>264.67</v>
       </c>
       <c r="I4">
         <v>536.96</v>
@@ -913,7 +913,7 @@
         <v>26.83</v>
       </c>
       <c r="U4">
-        <v>145.0764285714286</v>
+        <v>145.08</v>
       </c>
       <c r="V4">
         <v>69.58</v>
@@ -931,7 +931,7 @@
         <v>200.54</v>
       </c>
       <c r="AA4">
-        <v>65.4135294117647</v>
+        <v>65.41</v>
       </c>
       <c r="AB4">
         <v>375.38</v>
@@ -978,7 +978,7 @@
         <v>1240.1</v>
       </c>
       <c r="H5">
-        <v>264.6669999999999</v>
+        <v>264.67</v>
       </c>
       <c r="I5">
         <v>1253.77</v>
@@ -1017,7 +1017,7 @@
         <v>38.39</v>
       </c>
       <c r="U5">
-        <v>145.0764285714286</v>
+        <v>145.08</v>
       </c>
       <c r="V5">
         <v>69.58</v>
@@ -1035,7 +1035,7 @@
         <v>410.32</v>
       </c>
       <c r="AA5">
-        <v>65.4135294117647</v>
+        <v>65.41</v>
       </c>
       <c r="AB5">
         <v>577.4</v>
@@ -1082,7 +1082,7 @@
         <v>1408.81</v>
       </c>
       <c r="H6">
-        <v>264.6669999999999</v>
+        <v>264.67</v>
       </c>
       <c r="I6">
         <v>1443.82</v>
@@ -1121,7 +1121,7 @@
         <v>59.65</v>
       </c>
       <c r="U6">
-        <v>145.0764285714286</v>
+        <v>145.08</v>
       </c>
       <c r="V6">
         <v>69.58</v>
@@ -1186,7 +1186,7 @@
         <v>1429.63</v>
       </c>
       <c r="H7">
-        <v>264.6669999999999</v>
+        <v>264.67</v>
       </c>
       <c r="I7">
         <v>1429.63</v>
@@ -1225,7 +1225,7 @@
         <v>92.34999999999999</v>
       </c>
       <c r="U7">
-        <v>145.0764285714286</v>
+        <v>145.08</v>
       </c>
       <c r="V7">
         <v>69.58</v>
@@ -1810,7 +1810,7 @@
         <v>707.73</v>
       </c>
       <c r="H13">
-        <v>264.6669999999999</v>
+        <v>264.67</v>
       </c>
       <c r="I13">
         <v>725.3</v>
@@ -1846,7 +1846,7 @@
         <v>1215.49</v>
       </c>
       <c r="T13">
-        <v>73.76636363636364</v>
+        <v>73.77</v>
       </c>
       <c r="U13">
         <v>82.87</v>
@@ -1914,7 +1914,7 @@
         <v>717.89</v>
       </c>
       <c r="H14">
-        <v>264.6669999999999</v>
+        <v>264.67</v>
       </c>
       <c r="I14">
         <v>730.72</v>
@@ -1950,7 +1950,7 @@
         <v>1236.89</v>
       </c>
       <c r="T14">
-        <v>73.76636363636364</v>
+        <v>73.77</v>
       </c>
       <c r="U14">
         <v>57.51</v>
@@ -1983,10 +1983,10 @@
         <v>370.51</v>
       </c>
       <c r="AE14">
-        <v>46.10066666666667</v>
+        <v>46.1</v>
       </c>
       <c r="AF14">
-        <v>89.97133333333335</v>
+        <v>89.97</v>
       </c>
       <c r="AG14">
         <v>84.79000000000001</v>
@@ -2018,7 +2018,7 @@
         <v>613.04</v>
       </c>
       <c r="H15">
-        <v>264.6669999999999</v>
+        <v>264.67</v>
       </c>
       <c r="I15">
         <v>628.0599999999999</v>
@@ -2054,7 +2054,7 @@
         <v>1127.59</v>
       </c>
       <c r="T15">
-        <v>73.76636363636364</v>
+        <v>73.77</v>
       </c>
       <c r="U15">
         <v>57.51</v>
@@ -2122,7 +2122,7 @@
         <v>436.72</v>
       </c>
       <c r="H16">
-        <v>264.6669999999999</v>
+        <v>264.67</v>
       </c>
       <c r="I16">
         <v>452.11</v>
@@ -2158,7 +2158,7 @@
         <v>1167.21</v>
       </c>
       <c r="T16">
-        <v>73.76636363636364</v>
+        <v>73.77</v>
       </c>
       <c r="U16">
         <v>40.83</v>
@@ -2262,7 +2262,7 @@
         <v>1199.84</v>
       </c>
       <c r="T17">
-        <v>73.76636363636364</v>
+        <v>73.77</v>
       </c>
       <c r="U17">
         <v>40.83</v>
@@ -2280,7 +2280,7 @@
         <v>67.23999999999999</v>
       </c>
       <c r="Z17">
-        <v>168.2913333333333</v>
+        <v>168.29</v>
       </c>
       <c r="AA17">
         <v>80.54000000000001</v>
@@ -2357,7 +2357,7 @@
         <v>78.34</v>
       </c>
       <c r="Q18">
-        <v>367.1611764705882</v>
+        <v>367.16</v>
       </c>
       <c r="R18">
         <v>78.34</v>
@@ -2366,7 +2366,7 @@
         <v>1219.86</v>
       </c>
       <c r="T18">
-        <v>73.76636363636364</v>
+        <v>73.77</v>
       </c>
       <c r="U18">
         <v>40.83</v>
@@ -2384,7 +2384,7 @@
         <v>637.53</v>
       </c>
       <c r="Z18">
-        <v>168.2913333333333</v>
+        <v>168.29</v>
       </c>
       <c r="AA18">
         <v>61.08</v>
@@ -2399,10 +2399,10 @@
         <v>350.83</v>
       </c>
       <c r="AE18">
-        <v>46.10066666666667</v>
+        <v>46.1</v>
       </c>
       <c r="AF18">
-        <v>89.97133333333335</v>
+        <v>89.97</v>
       </c>
       <c r="AG18">
         <v>84.79000000000001</v>
@@ -2461,7 +2461,7 @@
         <v>108.05</v>
       </c>
       <c r="Q19">
-        <v>367.1611764705882</v>
+        <v>367.16</v>
       </c>
       <c r="R19">
         <v>116.1</v>
@@ -2470,7 +2470,7 @@
         <v>1252.79</v>
       </c>
       <c r="T19">
-        <v>73.76636363636364</v>
+        <v>73.77</v>
       </c>
       <c r="U19">
         <v>40.83</v>
@@ -2488,7 +2488,7 @@
         <v>86.15000000000001</v>
       </c>
       <c r="Z19">
-        <v>168.2913333333333</v>
+        <v>168.29</v>
       </c>
       <c r="AA19">
         <v>120.65</v>
@@ -2503,10 +2503,10 @@
         <v>355.17</v>
       </c>
       <c r="AE19">
-        <v>46.10066666666667</v>
+        <v>46.1</v>
       </c>
       <c r="AF19">
-        <v>89.97133333333335</v>
+        <v>89.97</v>
       </c>
       <c r="AG19">
         <v>8.800000000000001</v>
@@ -2565,7 +2565,7 @@
         <v>169.08</v>
       </c>
       <c r="Q20">
-        <v>367.1611764705882</v>
+        <v>367.16</v>
       </c>
       <c r="R20">
         <v>210.89</v>
@@ -2574,7 +2574,7 @@
         <v>1320.79</v>
       </c>
       <c r="T20">
-        <v>73.76636363636364</v>
+        <v>73.77</v>
       </c>
       <c r="U20">
         <v>40.83</v>
@@ -2592,7 +2592,7 @@
         <v>40.51</v>
       </c>
       <c r="Z20">
-        <v>168.2913333333333</v>
+        <v>168.29</v>
       </c>
       <c r="AA20">
         <v>85.29000000000001</v>
@@ -2607,10 +2607,10 @@
         <v>220.29</v>
       </c>
       <c r="AE20">
-        <v>46.10066666666667</v>
+        <v>46.1</v>
       </c>
       <c r="AF20">
-        <v>89.97133333333335</v>
+        <v>89.97</v>
       </c>
       <c r="AG20">
         <v>8.800000000000001</v>
@@ -2648,7 +2648,7 @@
         <v>77.06999999999999</v>
       </c>
       <c r="J21">
-        <v>80.55052631578947</v>
+        <v>80.55</v>
       </c>
       <c r="K21">
         <v>92.59</v>
@@ -2678,7 +2678,7 @@
         <v>107.93</v>
       </c>
       <c r="T21">
-        <v>73.76636363636364</v>
+        <v>73.77</v>
       </c>
       <c r="U21">
         <v>1.9</v>
@@ -2696,7 +2696,7 @@
         <v>28.75</v>
       </c>
       <c r="Z21">
-        <v>168.2913333333333</v>
+        <v>168.29</v>
       </c>
       <c r="AA21">
         <v>51.6</v>
@@ -2711,10 +2711,10 @@
         <v>193.05</v>
       </c>
       <c r="AE21">
-        <v>46.10066666666667</v>
+        <v>46.1</v>
       </c>
       <c r="AF21">
-        <v>89.97133333333335</v>
+        <v>89.97</v>
       </c>
       <c r="AG21">
         <v>8.800000000000001</v>

--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -1,37 +1,211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\OneDrive\Desktop\Kishan\Contractzy\WebScrapping\Tutorial\Financial_Data\MoneyControl\Companies\IT Services &amp; Consulting\3i Infotech Ltd\Pruned_Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE086EEF-AB84-4929-AADB-570B77AC6259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>Balance Sheet of 3i Infotech(in Rs. Cr.)</t>
+  </si>
+  <si>
+    <t>Equity Share Capital</t>
+  </si>
+  <si>
+    <t>Total Share Capital</t>
+  </si>
+  <si>
+    <t>Reserves and Surplus</t>
+  </si>
+  <si>
+    <t>Total Reserves and Surplus</t>
+  </si>
+  <si>
+    <t>Total Shareholders Funds</t>
+  </si>
+  <si>
+    <t>Long Term Borrowings</t>
+  </si>
+  <si>
+    <t>Other Long Term Liabilities</t>
+  </si>
+  <si>
+    <t>Total Non-Current Liabilities</t>
+  </si>
+  <si>
+    <t>Short Term Borrowings</t>
+  </si>
+  <si>
+    <t>Trade Payables</t>
+  </si>
+  <si>
+    <t>Other Current Liabilities</t>
+  </si>
+  <si>
+    <t>Short Term Provisions</t>
+  </si>
+  <si>
+    <t>Total Current Liabilities</t>
+  </si>
+  <si>
+    <t>Total Capital And Liabilities</t>
+  </si>
+  <si>
+    <t>Tangible Assets</t>
+  </si>
+  <si>
+    <t>Intangible Assets</t>
+  </si>
+  <si>
+    <t>Fixed Assets</t>
+  </si>
+  <si>
+    <t>Non-Current Investments</t>
+  </si>
+  <si>
+    <t>Deferred Tax Assets [Net]</t>
+  </si>
+  <si>
+    <t>Long Term Loans And Advances</t>
+  </si>
+  <si>
+    <t>Other Non-Current Assets</t>
+  </si>
+  <si>
+    <t>Total Non-Current Assets</t>
+  </si>
+  <si>
+    <t>Trade Receivables</t>
+  </si>
+  <si>
+    <t>Cash And Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Short Term Loans And Advances</t>
+  </si>
+  <si>
+    <t>OtherCurrentAssets</t>
+  </si>
+  <si>
+    <t>Total Current Assets</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+  </si>
+  <si>
+    <t>Expenditure In Foreign Currency</t>
+  </si>
+  <si>
+    <t>Other Earnings</t>
+  </si>
+  <si>
+    <t>Bonus Equity Share Capital</t>
+  </si>
+  <si>
+    <t>Non-Current Investments Unquoted Book Value</t>
+  </si>
+  <si>
+    <t>Mar 05</t>
+  </si>
+  <si>
+    <t>Mar 06</t>
+  </si>
+  <si>
+    <t>Mar 07</t>
+  </si>
+  <si>
+    <t>Mar 08</t>
+  </si>
+  <si>
+    <t>Mar 09</t>
+  </si>
+  <si>
+    <t>Mar 10</t>
+  </si>
+  <si>
+    <t>Mar 11</t>
+  </si>
+  <si>
+    <t>Mar 12</t>
+  </si>
+  <si>
+    <t>Mar 13</t>
+  </si>
+  <si>
+    <t>Mar 14</t>
+  </si>
+  <si>
+    <t>Mar 15</t>
+  </si>
+  <si>
+    <t>Mar 16</t>
+  </si>
+  <si>
+    <t>Mar 17</t>
+  </si>
+  <si>
+    <t>Mar 18</t>
+  </si>
+  <si>
+    <t>Mar 19</t>
+  </si>
+  <si>
+    <t>Mar 20</t>
+  </si>
+  <si>
+    <t>Mar 21</t>
+  </si>
+  <si>
+    <t>Mar 22</t>
+  </si>
+  <si>
+    <t>Mar 23</t>
+  </si>
+  <si>
+    <t>Mar 24</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +220,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,2308 +544,2198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Balance Sheet of 3i Infotech(in Rs. Cr.)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Equity Share Capital</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Share Capital</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Reserves and Surplus</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Reserves and Surplus</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Shareholders Funds</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Long Term Borrowings</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Other Long Term Liabilities</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total Non-Current Liabilities</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Short Term Borrowings</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Trade Payables</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Other Current Liabilities</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Short Term Provisions</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total Current Liabilities</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital And Liabilities</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Tangible Assets</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Intangible Assets</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Fixed Assets</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Non-Current Investments</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Deferred Tax Assets [Net]</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Long Term Loans And Advances</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Other Non-Current Assets</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Total Non-Current Assets</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Trade Receivables</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Cash And Cash Equivalents</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Short Term Loans And Advances</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>OtherCurrentAssets</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Total Current Assets</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Total Assets</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Contingent Liabilities</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Expenditure In Foreign Currency</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Other Earnings</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Bonus Equity Share Capital</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Non-Current Investments Unquoted Book Value</t>
-        </is>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Mar 05</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
         <v>31</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>181</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>29.91</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>29.91</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>210.92</v>
       </c>
-      <c r="G2" t="n">
-        <v>130.67</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>130.66999999999999</v>
+      </c>
+      <c r="H2">
         <v>264.67</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>149.54</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>11.19</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>50.52</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>14</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>10.9</v>
       </c>
-      <c r="N2" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="N2">
+        <v>86.6</v>
+      </c>
+      <c r="O2">
         <v>447.06</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>13.35</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>151.79</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>173.06</v>
       </c>
-      <c r="S2" t="n">
-        <v>86.65000000000001</v>
-      </c>
-      <c r="T2" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="U2" t="n">
-        <v>145.08</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="S2">
+        <v>86.65</v>
+      </c>
+      <c r="T2">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="U2">
+        <v>145.08000000000001</v>
+      </c>
+      <c r="V2">
         <v>0.9</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>279.45</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>57.59</v>
       </c>
-      <c r="Y2" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="Y2">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="Z2">
         <v>100.54</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>0.08</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>167.6</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>447.06</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>6.17</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>50.16</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>0.62</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>20</v>
       </c>
-      <c r="AH2" t="n">
-        <v>86.65000000000001</v>
+      <c r="AH2">
+        <v>86.65</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mar 06</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
         <v>53.05</v>
       </c>
-      <c r="C3" t="n">
-        <v>153.05</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>153.05000000000001</v>
+      </c>
+      <c r="D3">
         <v>219.17</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>219.17</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>372.22</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>294.74</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>264.67</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>317.31</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>20.64</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>49.71</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>16.09</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>25.35</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>111.78</v>
       </c>
-      <c r="O3" t="n">
-        <v>801.3099999999999</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-9.630000000000001</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="O3">
+        <v>801.31</v>
+      </c>
+      <c r="P3">
+        <v>-9.6300000000000008</v>
+      </c>
+      <c r="Q3">
         <v>216.77</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>209.38</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>100.94</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>21.72</v>
       </c>
-      <c r="U3" t="n">
-        <v>145.08</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="U3">
+        <v>145.08000000000001</v>
+      </c>
+      <c r="V3">
         <v>69.58</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>332.04</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>108.35</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>249.46</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>111.43</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>65.41</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>469.27</v>
       </c>
-      <c r="AC3" t="n">
-        <v>801.3099999999999</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AC3">
+        <v>801.31</v>
+      </c>
+      <c r="AD3">
         <v>13.16</v>
       </c>
-      <c r="AE3" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AE3">
+        <v>84.04</v>
+      </c>
+      <c r="AF3">
         <v>0.26</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>20</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>100.94</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mar 07</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
         <v>56.3</v>
       </c>
-      <c r="C4" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>305.35</v>
-      </c>
-      <c r="E4" t="n">
-        <v>305.35</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="C4">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="D4">
+        <v>305.35000000000002</v>
+      </c>
+      <c r="E4">
+        <v>305.35000000000002</v>
+      </c>
+      <c r="F4">
         <v>461.65</v>
       </c>
-      <c r="G4" t="n">
-        <v>533.4299999999999</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>533.42999999999995</v>
+      </c>
+      <c r="H4">
         <v>264.67</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>536.96</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>12.59</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>68.31</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>12.97</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>39.24</v>
       </c>
-      <c r="N4" t="n">
-        <v>133.11</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="N4">
+        <v>133.11000000000001</v>
+      </c>
+      <c r="O4">
         <v>1131.73</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>41.55</v>
       </c>
-      <c r="Q4" t="n">
-        <v>83.26000000000001</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4">
+        <v>83.26</v>
+      </c>
+      <c r="R4">
         <v>137.79</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>591.72</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>26.83</v>
       </c>
-      <c r="U4" t="n">
-        <v>145.08</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="U4">
+        <v>145.08000000000001</v>
+      </c>
+      <c r="V4">
         <v>69.58</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>756.35</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>109.67</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>65.17</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>200.54</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>65.41</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>375.38</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>1131.73</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>52.47</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>103.81</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>6.89</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>20</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>591.72</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mar 08</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
         <v>130.54</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>230.54</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>414.45</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>414.45</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>644.98</v>
       </c>
-      <c r="G5" t="n">
-        <v>1240.1</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>1240.0999999999999</v>
+      </c>
+      <c r="H5">
         <v>264.67</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>1253.77</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>22.01</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>72.3</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>20</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>56.46</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>170.76</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>2069.52</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>45.2</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>139.31</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>249.38</v>
       </c>
-      <c r="S5" t="n">
-        <v>1204.36</v>
-      </c>
-      <c r="T5" t="n">
+      <c r="S5">
+        <v>1204.3599999999999</v>
+      </c>
+      <c r="T5">
         <v>38.39</v>
       </c>
-      <c r="U5" t="n">
-        <v>145.08</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="U5">
+        <v>145.08000000000001</v>
+      </c>
+      <c r="V5">
         <v>69.58</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>1492.13</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>130.01</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>37.06</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>410.32</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>65.41</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>577.4</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>2069.52</v>
       </c>
-      <c r="AD5" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AD5">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="AE5">
         <v>123.21</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>13.15</v>
       </c>
-      <c r="AG5" t="n">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1204.36</v>
+      <c r="AG5">
+        <v>84.79</v>
+      </c>
+      <c r="AH5">
+        <v>1204.3599999999999</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mar 09</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
         <v>130.75</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>230.75</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>515.9</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>515.9</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>746.65</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1408.81</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>264.67</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>1443.82</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>112.17</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>154.62</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>145.62</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>54.64</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>467.05</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>2657.52</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>219.62</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>160.65</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>452.16</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>1455.42</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>59.65</v>
       </c>
-      <c r="U6" t="n">
-        <v>145.08</v>
-      </c>
-      <c r="V6" t="n">
+      <c r="U6">
+        <v>145.08000000000001</v>
+      </c>
+      <c r="V6">
         <v>69.58</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>1967.23</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>136.41</v>
       </c>
-      <c r="Y6" t="n">
-        <v>99.15000000000001</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="Y6">
+        <v>99.15</v>
+      </c>
+      <c r="Z6">
         <v>417.4</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>37.33</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>690.29</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>2657.52</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>88.77</v>
       </c>
-      <c r="AE6" t="n">
-        <v>92.54000000000001</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>148.42</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AE6">
+        <v>92.54</v>
+      </c>
+      <c r="AF6">
+        <v>148.41999999999999</v>
+      </c>
+      <c r="AG6">
+        <v>84.79</v>
+      </c>
+      <c r="AH6">
         <v>1455.42</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mar 10</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
         <v>168.76</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>268.76</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>626.34</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>626.34</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>895.1</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1429.63</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>264.67</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>1429.63</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>178.47</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>102.35</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>184</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>55.56</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>520.38</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>2845.11</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>22.64</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>207.21</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>231.23</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>1724.84</v>
       </c>
-      <c r="T7" t="n">
-        <v>92.34999999999999</v>
-      </c>
-      <c r="U7" t="n">
-        <v>145.08</v>
-      </c>
-      <c r="V7" t="n">
+      <c r="T7">
+        <v>92.35</v>
+      </c>
+      <c r="U7">
+        <v>145.08000000000001</v>
+      </c>
+      <c r="V7">
         <v>69.58</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>2048.42</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>250.07</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>44.74</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>486.88</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>15</v>
       </c>
-      <c r="AB7" t="n">
-        <v>796.6900000000001</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AB7">
+        <v>796.69</v>
+      </c>
+      <c r="AC7">
         <v>2845.11</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>28.53</v>
       </c>
-      <c r="AE7" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AE7">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="AF7">
         <v>168.69</v>
       </c>
-      <c r="AG7" t="n">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AG7">
+        <v>84.79</v>
+      </c>
+      <c r="AH7">
         <v>1724.84</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mar 11</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
         <v>191.99</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>291.99</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>776.25</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>776.25</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1068.24</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1038.82</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>155.46</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>1194.28</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>509.29</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>122.49</v>
       </c>
-      <c r="L8" t="n">
-        <v>318.03</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8">
+        <v>318.02999999999997</v>
+      </c>
+      <c r="M8">
         <v>57.82</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>1007.63</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>3270.15</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>120.57</v>
       </c>
-      <c r="Q8" t="n">
-        <v>97.26000000000001</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8">
+        <v>97.26</v>
+      </c>
+      <c r="R8">
         <v>217.83</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>1969.78</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>103.66</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>114.67</v>
       </c>
-      <c r="V8" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2408.2</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="V8">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="W8">
+        <v>2408.1999999999998</v>
+      </c>
+      <c r="X8">
         <v>196.84</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>108.86</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>482.79</v>
       </c>
-      <c r="AA8" t="n">
-        <v>73.45999999999999</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AA8">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="AB8">
         <v>861.95</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>3270.15</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>747.78</v>
       </c>
-      <c r="AE8" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AE8">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="AF8">
         <v>173.91</v>
       </c>
-      <c r="AG8" t="n">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AH8" t="n">
+      <c r="AG8">
+        <v>84.79</v>
+      </c>
+      <c r="AH8">
         <v>1969.78</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Mar 12</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
         <v>191.99</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>291.99</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>372.29</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>372.29</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>664.28</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1693.57</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>203.23</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>1896.8</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>216.1</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>257.88</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>172.26</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>26.47</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>672.71</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>3578.55</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>307.77</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>490.86</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>798.63</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>2019</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>103.66</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>87.48</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>0.45</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>3009.22</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>82.05</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>40.26</v>
       </c>
-      <c r="Z9" t="n">
-        <v>134.02</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="Z9">
+        <v>134.02000000000001</v>
+      </c>
+      <c r="AA9">
         <v>313</v>
       </c>
-      <c r="AB9" t="n">
-        <v>569.33</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AB9">
+        <v>569.33000000000004</v>
+      </c>
+      <c r="AC9">
         <v>3578.55</v>
       </c>
-      <c r="AD9" t="n">
-        <v>518.2</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AD9">
+        <v>518.20000000000005</v>
+      </c>
+      <c r="AE9">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="AF9">
         <v>358.26</v>
       </c>
-      <c r="AG9" t="n">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AH9" t="n">
+      <c r="AG9">
+        <v>84.79</v>
+      </c>
+      <c r="AH9">
         <v>2019.2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Mar 13</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>571.55</v>
-      </c>
-      <c r="C10" t="n">
-        <v>636.55</v>
-      </c>
-      <c r="D10" t="n">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>571.54999999999995</v>
+      </c>
+      <c r="C10">
+        <v>636.54999999999995</v>
+      </c>
+      <c r="D10">
         <v>397.11</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>397.11</v>
       </c>
-      <c r="F10" t="n">
-        <v>1033.66</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10">
+        <v>1033.6600000000001</v>
+      </c>
+      <c r="G10">
         <v>1958.49</v>
       </c>
-      <c r="H10" t="n">
-        <v>32.52</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="I10">
         <v>1991.01</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>147.57</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>804.76</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>20.04</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>978.37</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>4003.04</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>275.3</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>1226.67</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>1534.68</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>1533.88</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>103.66</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>573.63</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>6.15</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>3752</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>97.42</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>13.87</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>108.91</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>30.84</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>251.04</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>4003.04</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>403.73</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>1.73</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>40.6</v>
       </c>
-      <c r="AG10" t="n">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AG10">
+        <v>84.79</v>
+      </c>
+      <c r="AH10">
         <v>1533.88</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Mar 14</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
         <v>572.64</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>637.64</v>
       </c>
-      <c r="D11" t="n">
-        <v>-40.34</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-40.34</v>
-      </c>
-      <c r="F11" t="n">
-        <v>597.3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2062.93</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="D11">
+        <v>-40.340000000000003</v>
+      </c>
+      <c r="E11">
+        <v>-40.340000000000003</v>
+      </c>
+      <c r="F11">
+        <v>597.29999999999995</v>
+      </c>
+      <c r="G11">
+        <v>2062.9299999999998</v>
+      </c>
+      <c r="H11">
         <v>1002.31</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>3065.24</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>185.19</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>138.51</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>482.14</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>20.61</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>826.45</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>4488.99</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>217.69</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>1208.79</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>1426.48</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>1533.88</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>121.33</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>703.22</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>6.38</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>3791.29</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>609.96</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>16.5</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>41.67</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>29.57</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>697.7</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>4488.99</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>435.03</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>42.14</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>41.17</v>
       </c>
-      <c r="AG11" t="n">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AH11" t="n">
+      <c r="AG11">
+        <v>84.79</v>
+      </c>
+      <c r="AH11">
         <v>1533.88</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Mar 15</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
         <v>603.75</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>668.75</v>
       </c>
-      <c r="D12" t="n">
-        <v>-1079.11</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>-1079.1099999999999</v>
+      </c>
+      <c r="E12">
         <v>-953.61</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-284.86</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1995.76</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>1056.32</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>3052.08</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>140.16</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>155.32</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>605.61</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>21.54</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>922.63</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>3723.35</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>251.19</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>1112.08</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>1363.27</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>1432.55</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>121.33</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>148.13</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>6.05</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>3071.33</v>
       </c>
-      <c r="X12" t="n">
-        <v>575.1900000000001</v>
-      </c>
-      <c r="Y12" t="n">
+      <c r="X12">
+        <v>575.19000000000005</v>
+      </c>
+      <c r="Y12">
         <v>12.34</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>29.55</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>34.94</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>652.02</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>3723.35</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>396.09</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>111.19</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>78.55</v>
       </c>
-      <c r="AG12" t="n">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AG12">
+        <v>84.79</v>
+      </c>
+      <c r="AH12">
         <v>1432.55</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Mar 16</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>640.8</v>
-      </c>
-      <c r="C13" t="n">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>640.79999999999995</v>
+      </c>
+      <c r="C13">
         <v>924.48</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-477.44</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-477.44</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>730.72</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>707.73</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>264.67</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>725.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>11.69</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>122.94</v>
       </c>
-      <c r="L13" t="n">
-        <v>1191.35</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13">
+        <v>1191.3499999999999</v>
+      </c>
+      <c r="M13">
         <v>3.05</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>1329.03</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>2501.37</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>147.43</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>226.73</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>374.16</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>1215.49</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>73.77</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>82.87</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>165.2</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>1837.72</v>
       </c>
-      <c r="X13" t="n">
-        <v>603.3200000000001</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="X13">
+        <v>603.32000000000005</v>
+      </c>
+      <c r="Y13">
         <v>21.18</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>0.09</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>26.19</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>663.65</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13">
         <v>2501.37</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>392.46</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13">
         <v>19.7</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13">
         <v>48.89</v>
       </c>
-      <c r="AG13" t="n">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AH13" t="n">
+      <c r="AG13">
+        <v>84.79</v>
+      </c>
+      <c r="AH13">
         <v>1215.49</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Mar 17</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1183.65</v>
-      </c>
-      <c r="C14" t="n">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>1183.6500000000001</v>
+      </c>
+      <c r="C14">
         <v>1495.35</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-963.34</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-963.34</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>532.01</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>717.89</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>264.67</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>730.72</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>11.33</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>91.39</v>
       </c>
-      <c r="L14" t="n">
-        <v>1118.09</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1223.11</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="L14">
+        <v>1118.0899999999999</v>
+      </c>
+      <c r="M14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N14">
+        <v>1223.1099999999999</v>
+      </c>
+      <c r="O14">
         <v>2485.84</v>
       </c>
-      <c r="P14" t="n">
-        <v>142.48</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P14">
+        <v>142.47999999999999</v>
+      </c>
+      <c r="Q14">
         <v>225.81</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>368.29</v>
       </c>
-      <c r="S14" t="n">
-        <v>1236.89</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="S14">
+        <v>1236.8900000000001</v>
+      </c>
+      <c r="T14">
         <v>73.77</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>57.51</v>
       </c>
-      <c r="V14" t="n">
-        <v>130.33</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="V14">
+        <v>130.33000000000001</v>
+      </c>
+      <c r="W14">
         <v>1793.02</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>560.41</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>96.55</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>0.08</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>35.78</v>
       </c>
-      <c r="AB14" t="n">
-        <v>692.8200000000001</v>
-      </c>
-      <c r="AC14" t="n">
+      <c r="AB14">
+        <v>692.82</v>
+      </c>
+      <c r="AC14">
         <v>2485.84</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>370.51</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14">
         <v>46.1</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14">
         <v>89.97</v>
       </c>
-      <c r="AG14" t="n">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1236.89</v>
+      <c r="AG14">
+        <v>84.79</v>
+      </c>
+      <c r="AH14">
+        <v>1236.8900000000001</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Mar 18</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
         <v>1615.36</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1957.25</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-1512.72</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-1512.72</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>444.53</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>613.04</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>264.67</v>
       </c>
-      <c r="I15" t="n">
-        <v>628.0599999999999</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I15">
+        <v>628.05999999999995</v>
+      </c>
+      <c r="J15">
         <v>11.34</v>
       </c>
-      <c r="K15" t="n">
-        <v>93.95999999999999</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="K15">
+        <v>93.96</v>
+      </c>
+      <c r="L15">
         <v>1119.43</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>1.9</v>
       </c>
-      <c r="N15" t="n">
-        <v>1226.63</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="N15">
+        <v>1226.6300000000001</v>
+      </c>
+      <c r="O15">
         <v>2344.48</v>
       </c>
-      <c r="P15" t="n">
-        <v>140.95</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P15">
+        <v>140.94999999999999</v>
+      </c>
+      <c r="Q15">
         <v>225.3</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>366.25</v>
       </c>
-      <c r="S15" t="n">
-        <v>1127.59</v>
-      </c>
-      <c r="T15" t="n">
+      <c r="S15">
+        <v>1127.5899999999999</v>
+      </c>
+      <c r="T15">
         <v>73.77</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>57.51</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>129.57</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>1680.92</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>580.71</v>
       </c>
-      <c r="Y15" t="n">
-        <v>32.95</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AA15" t="n">
+      <c r="Y15">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="Z15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA15">
         <v>49.76</v>
       </c>
-      <c r="AB15" t="n">
-        <v>663.5599999999999</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="AB15">
+        <v>663.56</v>
+      </c>
+      <c r="AC15">
         <v>2344.48</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15">
         <v>409.96</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15">
         <v>6.13</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15">
         <v>69.42</v>
       </c>
-      <c r="AG15" t="n">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1127.59</v>
+      <c r="AG15">
+        <v>84.79</v>
+      </c>
+      <c r="AH15">
+        <v>1127.5899999999999</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mar 19</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
         <v>1616.64</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1992.07</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-1259.07</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-1259.07</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>733</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>436.72</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>264.67</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>452.11</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>12.13</v>
       </c>
-      <c r="K16" t="n">
-        <v>66.95999999999999</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="K16">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="L16">
         <v>1147.08</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>1.95</v>
       </c>
-      <c r="N16" t="n">
-        <v>1228.12</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="N16">
+        <v>1228.1199999999999</v>
+      </c>
+      <c r="O16">
         <v>2458.06</v>
       </c>
-      <c r="P16" t="n">
-        <v>138.64</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P16">
+        <v>138.63999999999999</v>
+      </c>
+      <c r="Q16">
         <v>224.66</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>363.3</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>1167.21</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>73.77</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>40.83</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>111.32</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>1682.66</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16">
         <v>629</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16">
         <v>79.47</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16">
         <v>0.01</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16">
         <v>66.92</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16">
         <v>775.4</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16">
         <v>2458.06</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16">
         <v>419.37</v>
       </c>
-      <c r="AE16" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="AF16" t="n">
+      <c r="AE16">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="AF16">
         <v>88.8</v>
       </c>
-      <c r="AG16" t="n">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AG16">
+        <v>84.79</v>
+      </c>
+      <c r="AH16">
         <v>1167.21</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mar 20</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
         <v>1616.65</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2047.16</v>
       </c>
-      <c r="D17" t="n">
-        <v>-1128.16</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-1128.16</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="D17">
+        <v>-1128.1600000000001</v>
+      </c>
+      <c r="E17">
+        <v>-1128.1600000000001</v>
+      </c>
+      <c r="F17">
         <v>919</v>
       </c>
-      <c r="G17" t="n">
-        <v>309.1</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="G17">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="H17">
         <v>47.54</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>372.01</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>13.08</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>42.34</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>1183.24</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>1.78</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>1240.44</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>2576.27</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>182.6</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>224.07</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>406.67</v>
       </c>
-      <c r="S17" t="n">
-        <v>1199.84</v>
-      </c>
-      <c r="T17" t="n">
+      <c r="S17">
+        <v>1199.8399999999999</v>
+      </c>
+      <c r="T17">
         <v>73.77</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>40.83</v>
       </c>
-      <c r="V17" t="n">
-        <v>128.11</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="V17">
+        <v>128.11000000000001</v>
+      </c>
+      <c r="W17">
         <v>1775.45</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17">
         <v>653.04</v>
       </c>
-      <c r="Y17" t="n">
-        <v>67.23999999999999</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="Y17">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="Z17">
         <v>168.29</v>
       </c>
-      <c r="AA17" t="n">
-        <v>80.54000000000001</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>800.8200000000001</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AA17">
+        <v>80.540000000000006</v>
+      </c>
+      <c r="AB17">
+        <v>800.82</v>
+      </c>
+      <c r="AC17">
         <v>2576.27</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17">
         <v>347.86</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17">
         <v>7.25</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17">
         <v>111.94</v>
       </c>
-      <c r="AG17" t="n">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1199.84</v>
+      <c r="AG17">
+        <v>84.79</v>
+      </c>
+      <c r="AH17">
+        <v>1199.8399999999999</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mar 21</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
         <v>1616.65</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>2047.16</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-803.58</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-803.58</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>1243.58</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>91.05</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>26</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>128.26</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>12.81</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>53.06</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>1105.29</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N18">
         <v>1172.32</v>
       </c>
-      <c r="O18" t="n">
-        <v>2563.05</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="O18">
+        <v>2563.0500000000002</v>
+      </c>
+      <c r="P18">
         <v>78.34</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>367.16</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>78.34</v>
       </c>
-      <c r="S18" t="n">
-        <v>1219.86</v>
-      </c>
-      <c r="T18" t="n">
+      <c r="S18">
+        <v>1219.8599999999999</v>
+      </c>
+      <c r="T18">
         <v>73.77</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>40.83</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>101.45</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18">
         <v>1440.48</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18">
         <v>423.96</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18">
         <v>637.53</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18">
         <v>168.29</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18">
         <v>61.08</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18">
         <v>1122.57</v>
       </c>
-      <c r="AC18" t="n">
-        <v>2563.05</v>
-      </c>
-      <c r="AD18" t="n">
+      <c r="AC18">
+        <v>2563.0500000000002</v>
+      </c>
+      <c r="AD18">
         <v>350.83</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18">
         <v>46.1</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18">
         <v>89.97</v>
       </c>
-      <c r="AG18" t="n">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1219.86</v>
+      <c r="AG18">
+        <v>84.79</v>
+      </c>
+      <c r="AH18">
+        <v>1219.8599999999999</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Mar 22</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19">
         <v>167.94</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>167.94</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>681.79</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>681.79</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>849.73</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>44.65</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>52.22</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>106.67</v>
       </c>
-      <c r="J19" t="n">
-        <v>37.02</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J19">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="K19">
         <v>56.02</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>1127.32</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>3.7</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>1224.06</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>2180.46</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>108.05</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>367.16</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>116.1</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>1252.79</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>73.77</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>40.83</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>112.81</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>1522.53</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19">
         <v>451.13</v>
       </c>
-      <c r="Y19" t="n">
-        <v>86.15000000000001</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="Y19">
+        <v>86.15</v>
+      </c>
+      <c r="Z19">
         <v>168.29</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19">
         <v>120.65</v>
       </c>
-      <c r="AB19" t="n">
-        <v>657.9299999999999</v>
-      </c>
-      <c r="AC19" t="n">
+      <c r="AB19">
+        <v>657.93</v>
+      </c>
+      <c r="AC19">
         <v>2180.46</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19">
         <v>355.17</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19">
         <v>46.1</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19">
         <v>89.97</v>
       </c>
-      <c r="AG19" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AH19" t="n">
+      <c r="AG19">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AH19">
         <v>1252.79</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mar 23</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
         <v>168.47</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>168.47</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>735.67</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>735.67</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>904.14</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>41.51</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>46.83</v>
       </c>
-      <c r="I20" t="n">
-        <v>98.56999999999999</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I20">
+        <v>98.57</v>
+      </c>
+      <c r="J20">
         <v>7.25</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>80.72</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>1097.23</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>3.67</v>
       </c>
-      <c r="N20" t="n">
-        <v>1188.87</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="N20">
+        <v>1188.8699999999999</v>
+      </c>
+      <c r="O20">
         <v>2191.58</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>169.08</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>367.16</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>210.89</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>1320.79</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20">
         <v>73.77</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20">
         <v>40.83</v>
       </c>
-      <c r="V20" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="W20" t="n">
+      <c r="V20">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="W20">
         <v>1649.61</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20">
         <v>416.17</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20">
         <v>40.51</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z20">
         <v>168.29</v>
       </c>
-      <c r="AA20" t="n">
-        <v>85.29000000000001</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AA20">
+        <v>85.29</v>
+      </c>
+      <c r="AB20">
         <v>541.97</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20">
         <v>2191.58</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20">
         <v>220.29</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20">
         <v>46.1</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20">
         <v>89.97</v>
       </c>
-      <c r="AG20" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AH20" t="n">
+      <c r="AG20">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AH20">
         <v>1320.79</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Mar 24</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21">
         <v>169.23</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>169.23</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-81.97</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-81.97</v>
       </c>
-      <c r="F21" t="n">
-        <v>87.26000000000001</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21">
+        <v>87.26</v>
+      </c>
+      <c r="G21">
         <v>38.79</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>24.24</v>
       </c>
-      <c r="I21" t="n">
-        <v>77.06999999999999</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="I21">
+        <v>77.069999999999993</v>
+      </c>
+      <c r="J21">
         <v>80.55</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>92.59</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>236.61</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>3.92</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>333.12</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>497.45</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>142.31</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>20.52</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>169.11</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21">
         <v>107.93</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21">
         <v>73.77</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21">
         <v>1.9</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21">
         <v>65.62</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21">
         <v>344.56</v>
       </c>
-      <c r="X21" t="n">
-        <v>72.54000000000001</v>
-      </c>
-      <c r="Y21" t="n">
+      <c r="X21">
+        <v>72.540000000000006</v>
+      </c>
+      <c r="Y21">
         <v>28.75</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21">
         <v>168.29</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21">
         <v>51.6</v>
       </c>
-      <c r="AB21" t="n">
-        <v>152.89</v>
-      </c>
-      <c r="AC21" t="n">
+      <c r="AB21">
+        <v>152.88999999999999</v>
+      </c>
+      <c r="AC21">
         <v>497.45</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21">
         <v>193.05</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21">
         <v>46.1</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21">
         <v>89.97</v>
       </c>
-      <c r="AG21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AH21" t="n">
+      <c r="AG21">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AH21">
         <v>107.93</v>
       </c>
     </row>

--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\OneDrive\Desktop\Kishan\Contractzy\WebScrapping\Tutorial\Financial_Data\MoneyControl\Companies\IT Services &amp; Consulting\3i Infotech Ltd\Pruned_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE086EEF-AB84-4929-AADB-570B77AC6259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB95087E-D157-44AC-BBF3-FA8539B8A8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,12 +547,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="42.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
